--- a/RAG/datas/evaluate_data/RAG 系统评估指标结果.xlsx
+++ b/RAG/datas/evaluate_data/RAG 系统评估指标结果.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laixiangran/lai-workspace/ai-learn/src/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laixiangran/lai-workspace/ai-learn-python/RAG/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB90052-57A4-ED44-AAE5-5F1D0CDFC840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C7ABEF-DD73-1840-8BF8-F349AFE17B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="06_检索优化 (1)" sheetId="5" r:id="rId1"/>
-    <sheet name="05_切分优化" sheetId="4" r:id="rId2"/>
-    <sheet name="04_问题优化" sheetId="3" r:id="rId3"/>
-    <sheet name="结果汇总" sheetId="1" r:id="rId4"/>
-    <sheet name="指标说明" sheetId="2" r:id="rId5"/>
+    <sheet name="06_切分优化 - 语义" sheetId="6" r:id="rId2"/>
+    <sheet name="05_切分优化 - markdown" sheetId="4" r:id="rId3"/>
+    <sheet name="04_问题优化" sheetId="3" r:id="rId4"/>
+    <sheet name="结果汇总" sheetId="1" r:id="rId5"/>
+    <sheet name="指标说明" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>版本</t>
   </si>
@@ -632,10 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v5.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,22 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>切分方法：在 MarkdownTextSplitter 基础上给每个文档添加n个模拟问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v5.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切分方法：将每个文档块的模拟问题单独向量化，并基于模拟问题检索相应文档块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一句话总结：答案忠实度越高，LLM 回答出现幻觉的概率越低。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,13 +695,86 @@
   </si>
   <si>
     <t>生成优化：答案忠实度、答案相关性、答案正确性。</t>
+  </si>
+  <si>
+    <t>v6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切分方法：基于向量距离的语义切分。切分点确定方法：percentile（分位数切分法）- 指定分位数（95分位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切分方法：基于向量距离的语义切分。切分点确定方法：percentile（分位数切分法）-根据块数量计算分位数（块数量：100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切分方法：基于向量距离的语义切分。切分点确定方法：standard_deviation（标准差偏离法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切分方法：基于向量距离的语义切分。切分点确定方法：interquartile（四分位距法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切分方法：基于向量距离的语义切分。切分点确定方法：gradient（梯度法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文召回率
+contextRecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文相关性
+contextRelevance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案忠实度
+faithfulness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案相关性
+answerRelevance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案正确性
+answerCorrectness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -872,6 +926,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -886,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -961,13 +1064,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1177,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1097,14 +1216,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFE0300"/>
@@ -1238,6 +1443,56 @@
     <dxf>
       <font>
         <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -1726,10 +1981,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="33" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -1752,8 +2007,8 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="33" customHeight="1">
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="22" t="s">
         <v>59</v>
       </c>
@@ -1774,8 +2029,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="33" customHeight="1">
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="19" t="s">
         <v>57</v>
       </c>
@@ -1796,8 +2051,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="33" customHeight="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="22" t="s">
         <v>60</v>
       </c>
@@ -1818,8 +2073,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="33" customHeight="1">
-      <c r="B8" s="32"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="22" t="s">
         <v>61</v>
       </c>
@@ -1840,8 +2095,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="33" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="22" t="s">
         <v>62</v>
       </c>
@@ -1862,8 +2117,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="33" customHeight="1">
-      <c r="B10" s="32"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="22" t="s">
         <v>63</v>
       </c>
@@ -1884,8 +2139,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="33" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="22" t="s">
         <v>64</v>
       </c>
@@ -1906,8 +2161,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="46" customHeight="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="22" t="s">
         <v>65</v>
       </c>
@@ -1928,10 +2183,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="46" customHeight="1">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1944,8 +2199,8 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="46" customHeight="1">
-      <c r="B14" s="32"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="22" t="s">
         <v>59</v>
       </c>
@@ -1955,8 +2210,8 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" ht="46" customHeight="1">
-      <c r="B15" s="32"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="19" t="s">
         <v>57</v>
       </c>
@@ -1967,8 +2222,8 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" ht="46" customHeight="1">
-      <c r="B16" s="32"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="22" t="s">
         <v>60</v>
       </c>
@@ -1979,8 +2234,8 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="46" customHeight="1">
-      <c r="B17" s="32"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="22" t="s">
         <v>61</v>
       </c>
@@ -1991,8 +2246,8 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="46" customHeight="1">
-      <c r="B18" s="32"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="22" t="s">
         <v>62</v>
       </c>
@@ -2013,8 +2268,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="46" customHeight="1">
-      <c r="B19" s="32"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="22" t="s">
         <v>63</v>
       </c>
@@ -2025,8 +2280,8 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" ht="46" customHeight="1">
-      <c r="B20" s="32"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="22" t="s">
         <v>64</v>
       </c>
@@ -2037,8 +2292,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" ht="33" customHeight="1">
-      <c r="B21" s="33"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="22" t="s">
         <v>65</v>
       </c>
@@ -2049,10 +2304,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" ht="46" customHeight="1">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -2065,8 +2320,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9" ht="46" customHeight="1">
-      <c r="B23" s="32"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="22" t="s">
         <v>59</v>
       </c>
@@ -2076,8 +2331,8 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:9" ht="46" customHeight="1">
-      <c r="B24" s="32"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="19" t="s">
         <v>57</v>
       </c>
@@ -2088,8 +2343,8 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="46" customHeight="1">
-      <c r="B25" s="32"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="22" t="s">
         <v>60</v>
       </c>
@@ -2100,8 +2355,8 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" ht="46" customHeight="1">
-      <c r="B26" s="32"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="22" t="s">
         <v>61</v>
       </c>
@@ -2112,8 +2367,8 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" ht="46" customHeight="1">
-      <c r="B27" s="32"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="22" t="s">
         <v>62</v>
       </c>
@@ -2134,8 +2389,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="46" customHeight="1">
-      <c r="B28" s="32"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="22" t="s">
         <v>63</v>
       </c>
@@ -2146,8 +2401,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:9" ht="46" customHeight="1">
-      <c r="B29" s="32"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="22" t="s">
         <v>64</v>
       </c>
@@ -2158,8 +2413,8 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:9" ht="33" customHeight="1">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="22" t="s">
         <v>65</v>
       </c>
@@ -2180,10 +2435,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3:E13 E15:E22 E24:E30">
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="35" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2334,10 +2589,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F30">
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="lessThan">
       <formula>0.43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="33" operator="greaterThan">
       <formula>0.43</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2648,26 +2903,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="30" operator="lessThan">
       <formula>0.72</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="31" operator="greaterThan">
       <formula>0.72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H30">
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="28" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I30">
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="26" operator="lessThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="27" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2995,15 +3250,279 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA75820-A4D8-2D44-A926-21F65AF543E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FDC7BD-9301-1B48-8122-B2C804F023DA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:H8"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" s="56" customFormat="1" ht="50" customHeight="1">
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="210" customHeight="1">
+      <c r="B3" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0.41</v>
+      </c>
+      <c r="E3" s="48">
+        <v>0.53</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0.84</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="70" customHeight="1">
+      <c r="B4" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0.77</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0.83</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="70" customHeight="1">
+      <c r="B5" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="49">
+        <v>0.77</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="70" customHeight="1">
+      <c r="B6" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0.63</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0.83</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="70" customHeight="1">
+      <c r="B7" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0.73</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0.83</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="70" customHeight="1">
+      <c r="B8" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0.83</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.53</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" dxfId="56" priority="11" operator="lessThan">
+      <formula>0.41</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="12" operator="greaterThan">
+      <formula>0.41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF89671"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1A11BED-ECA3-7843-A25C-7B5B455ADB37}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="cellIs" dxfId="54" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0.53</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThan">
+      <formula>0.53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0.84</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>0.84</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G8">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="lessThan">
+      <formula>0.55</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="greaterThan">
+      <formula>0.55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
+      <formula>0.48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
+      <formula>0.48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E1A11BED-ECA3-7843-A25C-7B5B455ADB37}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FF00B050"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:H8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA75820-A4D8-2D44-A926-21F65AF543E7}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:H6"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -3011,9 +3530,7 @@
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="7" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="4" max="8" width="26.83203125" customWidth="1"/>
     <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3041,11 +3558,11 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="140" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>84</v>
+      <c r="B3" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8">
         <v>0.41</v>
@@ -3064,11 +3581,11 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="46" customHeight="1">
-      <c r="B4" s="25" t="s">
-        <v>85</v>
+      <c r="B4" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="27">
         <v>0.44</v>
@@ -3087,11 +3604,11 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="46" customHeight="1">
-      <c r="B5" s="25" t="s">
-        <v>87</v>
+      <c r="B5" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="27">
         <v>0.54</v>
@@ -3110,11 +3627,11 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="58" customHeight="1">
-      <c r="B6" s="25" t="s">
-        <v>88</v>
+      <c r="B6" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="27">
         <v>0.56000000000000005</v>
@@ -3132,64 +3649,18 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="58" hidden="1" customHeight="1">
-      <c r="B7" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0.52</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0.84</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="58" hidden="1" customHeight="1">
-      <c r="B8" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0.52</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0.43</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0.84</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0.48</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="lessThan">
       <formula>0.41</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="greaterThan">
       <formula>0.41</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H12">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D3:H6">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3202,35 +3673,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8">
-    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0.53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>0.53</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="cellIs" dxfId="32" priority="15" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0.84</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>0.84</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G8">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
       <formula>0.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="greaterThan">
       <formula>0.55</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3252,7 +3723,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D3:H12</xm:sqref>
+          <xm:sqref>D3:H6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3260,7 +3731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB82AAA-112A-DB40-A193-37924261AA0C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3561,33 +4032,33 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="2:8" ht="40.5" customHeight="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="2:8" ht="159" customHeight="1">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
       <c r="B20" s="5"/>
@@ -3604,10 +4075,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3758,34 +4229,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
       <formula>0.43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
       <formula>0.43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="lessThan">
       <formula>0.72</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
       <formula>0.72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3898,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5088EADD-559C-4545-8302-492772DE53B5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4110,36 +4581,36 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="40.5" hidden="1" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="139.5" hidden="1" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" hidden="1" customHeight="1">
       <c r="A12" s="29"/>
@@ -4317,10 +4788,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="lessThan">
       <formula>0.41</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
       <formula>0.41</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4339,18 +4810,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4525,47 +4996,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="lessThan">
       <formula>0.43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
       <formula>0.43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0.88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0.72</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>0.72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0.55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H7">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4716,14 +5187,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C95AD9-F5AD-AD45-B7D5-91BD34E1D447}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" activeCellId="1" sqref="C22 B34"/>
     </sheetView>
   </sheetViews>
@@ -4739,26 +5210,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -4788,22 +5259,22 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -4821,16 +5292,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="42"/>
+      <c r="A15" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="43"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -4853,16 +5324,16 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="39"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A22" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="42"/>
+      <c r="A22" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:2" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -4885,16 +5356,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A29" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="42"/>
+      <c r="A29" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="43"/>
     </row>
     <row r="30" spans="1:2" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
@@ -4917,32 +5388,37 @@
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A36" s="43" t="s">
-        <v>99</v>
+      <c r="A36" s="31" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5" customHeight="1">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5" customHeight="1">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5" customHeight="1">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5" customHeight="1">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -4954,11 +5430,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RAG/datas/evaluate_data/RAG 系统评估指标结果.xlsx
+++ b/RAG/datas/evaluate_data/RAG 系统评估指标结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laixiangran/lai-workspace/ai-learn-python/RAG/datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laixiangran/lai-workspace/ai-learn-python/RAG/datas/evaluate_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C7ABEF-DD73-1840-8BF8-F349AFE17B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F43369-D1AD-3144-9A95-F1BFEDB50610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="06_检索优化 (1)" sheetId="5" r:id="rId1"/>
@@ -1180,6 +1180,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1214,52 +1253,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1267,6 +1287,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -1277,11 +1307,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -1292,6 +1347,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -1312,6 +1417,91 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B14D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFE0300"/>
       </font>
     </dxf>
@@ -1327,16 +1517,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFE0300"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B14D"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFE0300"/>
       </font>
     </dxf>
@@ -1347,252 +1537,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FF00B14D"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFE0300"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B14D"/>
       </font>
     </dxf>
   </dxfs>
@@ -1981,10 +1931,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="33" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="48" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -2007,8 +1957,8 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="33" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="22" t="s">
         <v>59</v>
       </c>
@@ -2029,8 +1979,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="33" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="19" t="s">
         <v>57</v>
       </c>
@@ -2051,8 +2001,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="33" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="22" t="s">
         <v>60</v>
       </c>
@@ -2073,8 +2023,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="33" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="22" t="s">
         <v>61</v>
       </c>
@@ -2095,8 +2045,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="33" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="22" t="s">
         <v>62</v>
       </c>
@@ -2117,8 +2067,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="33" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="22" t="s">
         <v>63</v>
       </c>
@@ -2139,8 +2089,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="33" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="22" t="s">
         <v>64</v>
       </c>
@@ -2161,8 +2111,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="46" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="22" t="s">
         <v>65</v>
       </c>
@@ -2183,10 +2133,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="46" customHeight="1">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="48" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -2199,8 +2149,8 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="46" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="22" t="s">
         <v>59</v>
       </c>
@@ -2210,8 +2160,8 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" ht="46" customHeight="1">
-      <c r="B15" s="33"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="19" t="s">
         <v>57</v>
       </c>
@@ -2222,8 +2172,8 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" ht="46" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="22" t="s">
         <v>60</v>
       </c>
@@ -2234,8 +2184,8 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="46" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="22" t="s">
         <v>61</v>
       </c>
@@ -2246,8 +2196,8 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="46" customHeight="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="22" t="s">
         <v>62</v>
       </c>
@@ -2268,8 +2218,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="46" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="22" t="s">
         <v>63</v>
       </c>
@@ -2280,8 +2230,8 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" ht="46" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="22" t="s">
         <v>64</v>
       </c>
@@ -2292,8 +2242,8 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" ht="33" customHeight="1">
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="22" t="s">
         <v>65</v>
       </c>
@@ -2304,10 +2254,10 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" ht="46" customHeight="1">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="48" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -2320,8 +2270,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9" ht="46" customHeight="1">
-      <c r="B23" s="33"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="22" t="s">
         <v>59</v>
       </c>
@@ -2331,8 +2281,8 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:9" ht="46" customHeight="1">
-      <c r="B24" s="33"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="19" t="s">
         <v>57</v>
       </c>
@@ -2343,8 +2293,8 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="46" customHeight="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="22" t="s">
         <v>60</v>
       </c>
@@ -2355,8 +2305,8 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" ht="46" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="22" t="s">
         <v>61</v>
       </c>
@@ -2367,8 +2317,8 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" ht="46" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="22" t="s">
         <v>62</v>
       </c>
@@ -2389,8 +2339,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="46" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="22" t="s">
         <v>63</v>
       </c>
@@ -2401,8 +2351,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:9" ht="46" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="22" t="s">
         <v>64</v>
       </c>
@@ -2413,8 +2363,8 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:9" ht="33" customHeight="1">
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="22" t="s">
         <v>65</v>
       </c>
@@ -2435,14 +2385,146 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3:E13 E15:E22 E24:E30">
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="35" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="34" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:I5">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFBAC6F8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{799AA421-9FAE-9540-9F66-7829C866154A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCDA7B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD571C54-5F9F-924D-BAA5-39A08A609054}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFBAC6F8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BDC52813-7112-3B4E-ABCA-9D2846FB4236}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF99570"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19CC04DE-B1FE-5841-B6E6-3DDBD3D44E58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF7DDFE7"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6BE560D1-02B8-3741-957B-148E4955A767}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFDFB9EB"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57EE048F-379B-774D-875C-2ED515DC452C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF7BE5BB"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0696D2A9-42CA-7246-AA3E-73F17C16E754}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCDA7B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F01E47F2-89F1-C444-AB7E-42F801B4962C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFBAC6F8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B3467C43-1D33-AB48-8695-AD81DD88C417}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF99570"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F8CE1320-0FAA-DF45-AE75-6521D1216F35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF99570"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F449C4A6-8AC2-5140-A907-64794CF7A6B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -2452,151 +2534,139 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{25477AA2-18BD-EE45-A477-DC593098217D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFBAC6F8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{799AA421-9FAE-9540-9F66-7829C866154A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF99570"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F449C4A6-8AC2-5140-A907-64794CF7A6B7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF99570"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8CE1320-0FAA-DF45-AE75-6521D1216F35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFBAC6F8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B3467C43-1D33-AB48-8695-AD81DD88C417}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCDA7B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F01E47F2-89F1-C444-AB7E-42F801B4962C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF7BE5BB"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0696D2A9-42CA-7246-AA3E-73F17C16E754}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFDFB9EB"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{57EE048F-379B-774D-875C-2ED515DC452C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF7DDFE7"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6BE560D1-02B8-3741-957B-148E4955A767}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF99570"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19CC04DE-B1FE-5841-B6E6-3DDBD3D44E58}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFBAC6F8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BDC52813-7112-3B4E-ABCA-9D2846FB4236}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCDA7B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD571C54-5F9F-924D-BAA5-39A08A609054}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F30">
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="lessThan">
       <formula>0.43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="33" operator="greaterThan">
       <formula>0.43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCDA7B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{245237B8-ED1D-1044-AC4A-109EAEFA1808}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFBAC6F8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DDA361B5-2ABE-6B41-8AA7-861D28E0CA2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF99570"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D4C67D78-9145-5D40-9AD9-AE95FF79EF24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF7DDFE7"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8068B1DA-7D22-214C-8D0D-76243CCA2A5C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFDFB9EB"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1EAFA712-8BB4-F84F-8ABC-9FC881958D4A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF7BE5BB"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{243A9755-04D9-AD48-A83E-D1E1DD2D8801}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCDA7B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E71D8BC7-AD9A-9C49-9D75-8CEB348BE1EA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFBAC6F8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C515C054-BD10-8343-8F8A-65C7651AE4BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF99570"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{75484FA4-C3AC-0B47-969B-E9915DB46D14}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF99570"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{465D0531-80C6-1842-9069-B81E151316FA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2606,126 +2676,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{C4A3FB4A-FF8F-1345-B8F6-9183523E6A79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF99570"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{465D0531-80C6-1842-9069-B81E151316FA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF99570"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75484FA4-C3AC-0B47-969B-E9915DB46D14}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFBAC6F8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C515C054-BD10-8343-8F8A-65C7651AE4BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCDA7B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E71D8BC7-AD9A-9C49-9D75-8CEB348BE1EA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF7BE5BB"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{243A9755-04D9-AD48-A83E-D1E1DD2D8801}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFDFB9EB"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1EAFA712-8BB4-F84F-8ABC-9FC881958D4A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF7DDFE7"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8068B1DA-7D22-214C-8D0D-76243CCA2A5C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF99570"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D4C67D78-9145-5D40-9AD9-AE95FF79EF24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFBAC6F8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DDA361B5-2ABE-6B41-8AA7-861D28E0CA2C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCDA7B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{245237B8-ED1D-1044-AC4A-109EAEFA1808}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2903,26 +2853,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="62" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="lessThan">
       <formula>0.72</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="greaterThan">
       <formula>0.72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H30">
-    <cfRule type="cellIs" dxfId="60" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I30">
-    <cfRule type="cellIs" dxfId="58" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="27" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="26" operator="lessThan">
       <formula>0.65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2932,14 +2882,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{25477AA2-18BD-EE45-A477-DC593098217D}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{799AA421-9FAE-9540-9F66-7829C866154A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -2948,6 +2890,78 @@
               <x14:axisColor auto="1"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{DD571C54-5F9F-924D-BAA5-39A08A609054}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{BDC52813-7112-3B4E-ABCA-9D2846FB4236}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{19CC04DE-B1FE-5841-B6E6-3DDBD3D44E58}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{6BE560D1-02B8-3741-957B-148E4955A767}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{57EE048F-379B-774D-875C-2ED515DC452C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0696D2A9-42CA-7246-AA3E-73F17C16E754}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{F01E47F2-89F1-C444-AB7E-42F801B4962C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{B3467C43-1D33-AB48-8695-AD81DD88C417}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{F8CE1320-0FAA-DF45-AE75-6521D1216F35}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{F449C4A6-8AC2-5140-A907-64794CF7A6B7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -2956,71 +2970,7 @@
               <x14:axisColor auto="1"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{F8CE1320-0FAA-DF45-AE75-6521D1216F35}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{B3467C43-1D33-AB48-8695-AD81DD88C417}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{F01E47F2-89F1-C444-AB7E-42F801B4962C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0696D2A9-42CA-7246-AA3E-73F17C16E754}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{57EE048F-379B-774D-875C-2ED515DC452C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6BE560D1-02B8-3741-957B-148E4955A767}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{19CC04DE-B1FE-5841-B6E6-3DDBD3D44E58}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{BDC52813-7112-3B4E-ABCA-9D2846FB4236}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{DD571C54-5F9F-924D-BAA5-39A08A609054}">
+          <x14:cfRule type="dataBar" id="{25477AA2-18BD-EE45-A477-DC593098217D}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3031,88 +2981,88 @@
           <xm:sqref>E5:I5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{245237B8-ED1D-1044-AC4A-109EAEFA1808}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{DDA361B5-2ABE-6B41-8AA7-861D28E0CA2C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{D4C67D78-9145-5D40-9AD9-AE95FF79EF24}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8068B1DA-7D22-214C-8D0D-76243CCA2A5C}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1EAFA712-8BB4-F84F-8ABC-9FC881958D4A}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{243A9755-04D9-AD48-A83E-D1E1DD2D8801}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E71D8BC7-AD9A-9C49-9D75-8CEB348BE1EA}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C515C054-BD10-8343-8F8A-65C7651AE4BF}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{75484FA4-C3AC-0B47-969B-E9915DB46D14}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{465D0531-80C6-1842-9069-B81E151316FA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{C4A3FB4A-FF8F-1345-B8F6-9183523E6A79}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{465D0531-80C6-1842-9069-B81E151316FA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{75484FA4-C3AC-0B47-969B-E9915DB46D14}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{C515C054-BD10-8343-8F8A-65C7651AE4BF}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{E71D8BC7-AD9A-9C49-9D75-8CEB348BE1EA}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{243A9755-04D9-AD48-A83E-D1E1DD2D8801}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1EAFA712-8BB4-F84F-8ABC-9FC881958D4A}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8068B1DA-7D22-214C-8D0D-76243CCA2A5C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{D4C67D78-9145-5D40-9AD9-AE95FF79EF24}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{DDA361B5-2ABE-6B41-8AA7-861D28E0CA2C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{245237B8-ED1D-1044-AC4A-109EAEFA1808}">
-            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFF97885"/>
@@ -3258,7 +3208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -3270,174 +3220,174 @@
     <col min="9" max="9" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="56" customFormat="1" ht="50" customHeight="1">
-      <c r="B2" s="53" t="s">
+    <row r="2" spans="2:8" s="44" customFormat="1" ht="50" customHeight="1">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="210" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="36">
         <v>0.41</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="36">
         <v>0.53</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="36">
         <v>0.84</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="36">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="36">
         <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="70" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="37">
         <v>0.59</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="37">
         <v>0.77</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="37">
         <v>0.83</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="37">
         <v>0.64</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="37">
         <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="70" customHeight="1">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="37">
         <v>0.5</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="37">
         <v>0.77</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="37">
         <v>0.59</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="37">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="70" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="37">
         <v>0.63</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="37">
         <v>0.83</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="37">
         <v>0.78</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="37">
         <v>0.64</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="37">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="70" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="37">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="37">
         <v>0.73</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="37">
         <v>0.83</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="37">
         <v>0.64</v>
       </c>
-      <c r="H7" s="49">
-        <v>0.42</v>
+      <c r="H7" s="37">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="70" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="37">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="37">
         <v>0.83</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="37">
         <v>0.7</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="37">
         <v>0.53</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="37">
         <v>0.53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="lessThan">
       <formula>0.41</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="greaterThan">
       <formula>0.41</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3456,34 +3406,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E8">
-    <cfRule type="cellIs" dxfId="54" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0.53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>0.53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.84</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0.84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="lessThan">
       <formula>0.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
       <formula>0.55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3558,7 +3508,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="140" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="32" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -3652,10 +3602,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="lessThan">
       <formula>0.41</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="greaterThan">
       <formula>0.41</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3674,34 +3624,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0.53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>0.53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0.84</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>0.84</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
       <formula>0.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="greaterThan">
       <formula>0.55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4032,33 +3982,33 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="2:8" ht="40.5" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="2:8" ht="159" customHeight="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
       <c r="B20" s="5"/>
@@ -4075,10 +4025,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4229,34 +4179,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
       <formula>0.43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="greaterThan">
       <formula>0.43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
       <formula>0.72</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0.72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4581,36 +4531,36 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="40.5" hidden="1" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="139.5" hidden="1" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" hidden="1" customHeight="1">
       <c r="A12" s="29"/>
@@ -4788,10 +4738,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>0.41</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
       <formula>0.41</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4810,22 +4760,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:H7">
+    <cfRule type="dataBar" priority="295">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCDA7B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8408B616-7BE3-61C4-DDE0-353DAA620AD8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -4862,6 +4824,78 @@
         </ext>
       </extLst>
     </cfRule>
+    <cfRule type="dataBar" priority="300">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFBAC6F8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49738EA0-E9A9-0BFA-AFCA-021865618356}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="299">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF99570"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD520DEA-27EE-2F62-A31D-01D156754911}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="298">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF7DDFE7"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{457321EA-D9F9-5DC8-6014-13B14F4135DC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="297">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFDFB9EB"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB314B89-A913-9C79-F6F1-1038EFF476B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="296">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF7BE5BB"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{867C942A-D2A7-0AA6-F893-1F62E954D4F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="301">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCDA7B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C08C0DB-23F8-44DB-C19F-0DA80D04FC55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="291">
       <dataBar>
         <cfvo type="min"/>
@@ -4907,136 +4941,52 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{81E6FFFE-ED50-9FF3-9741-33C64EDA10BE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="295">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCDA7B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8408B616-7BE3-61C4-DDE0-353DAA620AD8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="296">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF7BE5BB"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{867C942A-D2A7-0AA6-F893-1F62E954D4F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="297">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFDFB9EB"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BB314B89-A913-9C79-F6F1-1038EFF476B9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="298">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF7DDFE7"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{457321EA-D9F9-5DC8-6014-13B14F4135DC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="299">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF99570"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD520DEA-27EE-2F62-A31D-01D156754911}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="300">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFBAC6F8"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49738EA0-E9A9-0BFA-AFCA-021865618356}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="301">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCDA7B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C08C0DB-23F8-44DB-C19F-0DA80D04FC55}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="lessThan">
       <formula>0.43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="greaterThan">
       <formula>0.43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="greaterThan">
       <formula>0.72</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="lessThan">
       <formula>0.72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0.55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H7">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThan">
       <formula>0.65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
       <formula>0.65</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5061,6 +5011,14 @@
           <xm:sqref>C23:G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8408B616-7BE3-61C4-DDE0-353DAA620AD8}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{315EC0EC-5A35-D04E-BEDE-551A03AA257E}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -5091,6 +5049,54 @@
               <x14:axisColor auto="1"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{49738EA0-E9A9-0BFA-AFCA-021865618356}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{DD520DEA-27EE-2F62-A31D-01D156754911}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{457321EA-D9F9-5DC8-6014-13B14F4135DC}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{BB314B89-A913-9C79-F6F1-1038EFF476B9}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{867C942A-D2A7-0AA6-F893-1F62E954D4F3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3C08C0DB-23F8-44DB-C19F-0DA80D04FC55}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFF97885"/>
+              <x14:axisColor auto="1"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{18D57835-054B-6A2E-61E7-378ED5B10DBE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -5116,62 +5122,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <x14:cfRule type="dataBar" id="{81E6FFFE-ED50-9FF3-9741-33C64EDA10BE}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8408B616-7BE3-61C4-DDE0-353DAA620AD8}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{867C942A-D2A7-0AA6-F893-1F62E954D4F3}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{BB314B89-A913-9C79-F6F1-1038EFF476B9}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{457321EA-D9F9-5DC8-6014-13B14F4135DC}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{DD520DEA-27EE-2F62-A31D-01D156754911}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{49738EA0-E9A9-0BFA-AFCA-021865618356}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFF97885"/>
-              <x14:axisColor auto="1"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3C08C0DB-23F8-44DB-C19F-0DA80D04FC55}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5210,26 +5160,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -5259,22 +5209,22 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -5292,16 +5242,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="52"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -5324,16 +5274,16 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" spans="1:2" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -5356,16 +5306,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="56"/>
     </row>
     <row r="30" spans="1:2" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
@@ -5414,11 +5364,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -5430,6 +5375,11 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
